--- a/uniaxial-loading-unloading/time_strain_stress/0d03_2d0.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d03_2d0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -91,1300 +91,1300 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.59090909090909083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0156000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>4.5309712779973639</v>
+        <v>4.6507972027972047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.03</v>
+        <v>1.0306</v>
       </c>
       <c r="C4" s="0">
-        <v>7.2161602108036869</v>
+        <v>7.3081266968325806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0456000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>9.4422772068511165</v>
+        <v>9.5233986013986023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0606</v>
       </c>
       <c r="C6" s="0">
-        <v>11.393779183135701</v>
+        <v>11.464810366104487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.075</v>
+        <v>1.0756000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>13.156779622310054</v>
+        <v>13.227498971616622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0906</v>
       </c>
       <c r="C8" s="0">
-        <v>14.78264066754501</v>
+        <v>14.844805429864254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.105</v>
+        <v>1.1055999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>16.285660781730339</v>
+        <v>16.339661044837516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1206</v>
       </c>
       <c r="C10" s="0">
-        <v>17.679019762845851</v>
+        <v>17.722831756478815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.135</v>
+        <v>1.1355999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>18.989146772068509</v>
+        <v>19.039800904977376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1506000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>20.216674220465521</v>
+        <v>20.265224187577132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.165</v>
+        <v>1.1656</v>
       </c>
       <c r="C13" s="0">
-        <v>21.376527184892399</v>
+        <v>21.4226170300288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1806000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>22.476837066315326</v>
+        <v>22.517552447552458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1956</v>
       </c>
       <c r="C15" s="0">
-        <v>23.518593939393931</v>
+        <v>23.556399012751957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.21</v>
+        <v>1.2105999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>24.501927799736492</v>
+        <v>24.541238996297821</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2256</v>
       </c>
       <c r="C17" s="0">
-        <v>25.452597804128231</v>
+        <v>25.48893541752366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.24</v>
+        <v>1.2405999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>26.355272375933239</v>
+        <v>26.385781160016457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2556</v>
       </c>
       <c r="C19" s="0">
-        <v>27.207696618357485</v>
+        <v>27.23903578774167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.27</v>
+        <v>1.2706</v>
       </c>
       <c r="C20" s="0">
-        <v>28.016672288098373</v>
+        <v>28.048974907445501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2849999999999999</v>
+        <v>1.2856000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>28.800996047430825</v>
+        <v>28.834746194981498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.3</v>
+        <v>1.3006</v>
       </c>
       <c r="C22" s="0">
-        <v>29.55969907773385</v>
+        <v>29.594401480872072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3155999999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>30.279422573561696</v>
+        <v>30.305317153434803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3306</v>
       </c>
       <c r="C24" s="0">
-        <v>30.972024066754493</v>
+        <v>30.995546688605511</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.345</v>
+        <v>1.3455999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>31.629349670619227</v>
+        <v>31.656691073632253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3606</v>
       </c>
       <c r="C26" s="0">
-        <v>32.278900658761522</v>
+        <v>32.306548745372282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.375</v>
+        <v>1.3755999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>32.891270267896353</v>
+        <v>32.911460304401487</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3906000000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>33.480570926657876</v>
+        <v>33.502031262854786</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.405</v>
+        <v>1.4056</v>
       </c>
       <c r="C29" s="0">
-        <v>34.054132454984625</v>
+        <v>34.077124640065819</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4205999999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>34.610713921826957</v>
+        <v>34.629299876593997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4356</v>
       </c>
       <c r="C31" s="0">
-        <v>35.145349670619225</v>
+        <v>35.165368161250512</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.45</v>
+        <v>1.4505999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>35.658412648221329</v>
+        <v>35.676799670917326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.4649999999999999</v>
+        <v>1.4656</v>
       </c>
       <c r="C33" s="0">
-        <v>36.1527334211682</v>
+        <v>36.173568901686558</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.48</v>
+        <v>1.4805999999999999</v>
       </c>
       <c r="C34" s="0">
-        <v>36.648296354852874</v>
+        <v>36.667811600164555</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4956</v>
       </c>
       <c r="C35" s="0">
-        <v>37.114280017566976</v>
+        <v>37.131316330728104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>17</v>
+        <v>17.02</v>
       </c>
       <c r="B36" s="0">
-        <v>1.51</v>
+        <v>1.5105999999999999</v>
       </c>
       <c r="C36" s="0">
-        <v>37.572316556873069</v>
+        <v>37.592052653229132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
       <c r="B37" s="0">
-        <v>1.5249999999999999</v>
+        <v>1.5255999999999998</v>
       </c>
       <c r="C37" s="0">
-        <v>38.011878787878778</v>
+        <v>38.030958453311392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="B38" s="0">
-        <v>1.54</v>
+        <v>1.5406</v>
       </c>
       <c r="C38" s="0">
-        <v>38.435568906455856</v>
+        <v>38.450464829288372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.5</v>
+        <v>18.52</v>
       </c>
       <c r="B39" s="0">
-        <v>1.5549999999999999</v>
+        <v>1.5556000000000001</v>
       </c>
       <c r="C39" s="0">
-        <v>38.862657707509875</v>
+        <v>38.87773179761416</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>19</v>
+        <v>19.02</v>
       </c>
       <c r="B40" s="0">
-        <v>1.5699999999999998</v>
+        <v>1.5706</v>
       </c>
       <c r="C40" s="0">
-        <v>39.263098287220018</v>
+        <v>39.278456602221318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.5</v>
+        <v>19.52</v>
       </c>
       <c r="B41" s="0">
-        <v>1.585</v>
+        <v>1.5855999999999999</v>
       </c>
       <c r="C41" s="0">
-        <v>39.665474747474732</v>
+        <v>39.678055944055949</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="B42" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.6006</v>
       </c>
       <c r="C42" s="0">
-        <v>40.046558102766781</v>
+        <v>40.059949814890999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.5</v>
+        <v>20.52</v>
       </c>
       <c r="B43" s="0">
-        <v>1.615</v>
+        <v>1.6155999999999999</v>
       </c>
       <c r="C43" s="0">
-        <v>40.415888098375049</v>
+        <v>40.427693130399014</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>21</v>
+        <v>21.02</v>
       </c>
       <c r="B44" s="0">
-        <v>1.6299999999999999</v>
+        <v>1.6305999999999998</v>
       </c>
       <c r="C44" s="0">
-        <v>40.786198682476929</v>
+        <v>40.804542986425353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.5</v>
+        <v>21.52</v>
       </c>
       <c r="B45" s="0">
-        <v>1.645</v>
+        <v>1.6456</v>
       </c>
       <c r="C45" s="0">
-        <v>41.136065700483087</v>
+        <v>41.150447552447559</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>22</v>
+        <v>22.02</v>
       </c>
       <c r="B46" s="0">
-        <v>1.6599999999999999</v>
+        <v>1.6606000000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>41.48899130434782</v>
+        <v>41.503022624434394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.5</v>
+        <v>22.52</v>
       </c>
       <c r="B47" s="0">
-        <v>1.6749999999999998</v>
+        <v>1.6756</v>
       </c>
       <c r="C47" s="0">
-        <v>41.819529205094412</v>
+        <v>41.834932949403544</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="B48" s="0">
-        <v>1.6899999999999999</v>
+        <v>1.6905999999999999</v>
       </c>
       <c r="C48" s="0">
-        <v>42.139175230566515</v>
+        <v>42.158066639243124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.5</v>
+        <v>23.52</v>
       </c>
       <c r="B49" s="0">
-        <v>1.7050000000000001</v>
+        <v>1.7056</v>
       </c>
       <c r="C49" s="0">
-        <v>42.464819323671492</v>
+        <v>42.47578033730975</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>24</v>
+        <v>24.02</v>
       </c>
       <c r="B50" s="0">
-        <v>1.72</v>
+        <v>1.7205999999999999</v>
       </c>
       <c r="C50" s="0">
-        <v>42.787129380764149</v>
+        <v>42.801484162895932</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.5</v>
+        <v>24.52</v>
       </c>
       <c r="B51" s="0">
-        <v>1.7349999999999999</v>
+        <v>1.7355999999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>43.094271761089146</v>
+        <v>43.108673796791443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>25</v>
+        <v>25.02</v>
       </c>
       <c r="B52" s="0">
-        <v>1.75</v>
+        <v>1.7505999999999999</v>
       </c>
       <c r="C52" s="0">
-        <v>43.396533333333331</v>
+        <v>43.413911970382564</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.5</v>
+        <v>25.52</v>
       </c>
       <c r="B53" s="0">
-        <v>1.7650000000000001</v>
+        <v>1.7656000000000001</v>
       </c>
       <c r="C53" s="0">
-        <v>43.686502415458932</v>
+        <v>43.699856026326614</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>26</v>
+        <v>26.02</v>
       </c>
       <c r="B54" s="0">
-        <v>1.78</v>
+        <v>1.7806</v>
       </c>
       <c r="C54" s="0">
-        <v>43.972993763724183</v>
+        <v>43.987454545454547</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.5</v>
+        <v>26.52</v>
       </c>
       <c r="B55" s="0">
-        <v>1.7949999999999999</v>
+        <v>1.7955999999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>44.257358805445762</v>
+        <v>44.269645413410124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>27</v>
+        <v>27.02</v>
       </c>
       <c r="B56" s="0">
-        <v>1.8100000000000001</v>
+        <v>1.8106</v>
       </c>
       <c r="C56" s="0">
-        <v>44.53120562143171</v>
+        <v>44.545433155080225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.5</v>
+        <v>27.52</v>
       </c>
       <c r="B57" s="0">
-        <v>1.825</v>
+        <v>1.8256000000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>44.804871497584536</v>
+        <v>44.817178116001649</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>28</v>
+        <v>28.02</v>
       </c>
       <c r="B58" s="0">
-        <v>1.8399999999999999</v>
+        <v>1.8405999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>45.069477382520859</v>
+        <v>45.082492801316342</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.5</v>
+        <v>28.52</v>
       </c>
       <c r="B59" s="0">
-        <v>1.855</v>
+        <v>1.8555999999999999</v>
       </c>
       <c r="C59" s="0">
-        <v>45.337169784804559</v>
+        <v>45.34364459070342</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29</v>
+        <v>29.02</v>
       </c>
       <c r="B60" s="0">
-        <v>1.8700000000000001</v>
+        <v>1.8706</v>
       </c>
       <c r="C60" s="0">
-        <v>45.583720860781725</v>
+        <v>45.592644179350074</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.5</v>
+        <v>29.52</v>
       </c>
       <c r="B61" s="0">
-        <v>1.885</v>
+        <v>1.8855999999999999</v>
       </c>
       <c r="C61" s="0">
-        <v>45.85139885814668</v>
+        <v>45.860220485396972</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>30</v>
+        <v>30.02</v>
       </c>
       <c r="B62" s="0">
-        <v>1.8999999999999999</v>
+        <v>1.9005999999999998</v>
       </c>
       <c r="C62" s="0">
-        <v>46.094786824769422</v>
+        <v>46.101513780337307</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>30.5</v>
+        <v>30.52</v>
       </c>
       <c r="B63" s="0">
-        <v>1.915</v>
+        <v>1.9156</v>
       </c>
       <c r="C63" s="0">
-        <v>46.331728063241101</v>
+        <v>46.339911970382559</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>31</v>
+        <v>31.02</v>
       </c>
       <c r="B64" s="0">
-        <v>1.9299999999999999</v>
+        <v>1.9306000000000001</v>
       </c>
       <c r="C64" s="0">
-        <v>46.58150847606499</v>
+        <v>46.591245577951469</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>31.5</v>
+        <v>31.52</v>
       </c>
       <c r="B65" s="0">
-        <v>1.9449999999999998</v>
+        <v>1.9456</v>
       </c>
       <c r="C65" s="0">
-        <v>46.808851295564338</v>
+        <v>46.815897984368583</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>32</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="B66" s="0">
-        <v>1.96</v>
+        <v>1.9605999999999999</v>
       </c>
       <c r="C66" s="0">
-        <v>47.040511725955184</v>
+        <v>47.050184286301949</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>32.5</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="B67" s="0">
-        <v>1.9750000000000001</v>
+        <v>1.9756</v>
       </c>
       <c r="C67" s="0">
-        <v>47.271565393061039</v>
+        <v>47.280504319210202</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>33</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="B68" s="0">
-        <v>1.99</v>
+        <v>1.9906000000000001</v>
       </c>
       <c r="C68" s="0">
-        <v>47.493251998243302</v>
+        <v>47.500182640888532</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>33.472000000000001</v>
+        <v>33.491999999999997</v>
       </c>
       <c r="B69" s="0">
-        <v>1.97584</v>
+        <v>1.9764400000000004</v>
       </c>
       <c r="C69" s="0">
-        <v>46.291259247998376</v>
+        <v>46.323736050046207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>33.972000000000001</v>
+        <v>33.991999999999997</v>
       </c>
       <c r="B70" s="0">
-        <v>1.9608399999999999</v>
+        <v>1.9614400000000003</v>
       </c>
       <c r="C70" s="0">
-        <v>44.783980436778847</v>
+        <v>44.723533525298237</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>34.472000000000001</v>
+        <v>34.491999999999997</v>
       </c>
       <c r="B71" s="0">
-        <v>1.94584</v>
+        <v>1.9464400000000004</v>
       </c>
       <c r="C71" s="0">
-        <v>43.35006659480176</v>
+        <v>43.298096929808175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>34.972000000000001</v>
+        <v>34.991999999999997</v>
       </c>
       <c r="B72" s="0">
-        <v>1.9308399999999999</v>
+        <v>1.9314400000000003</v>
       </c>
       <c r="C72" s="0">
-        <v>42.110961232882168</v>
+        <v>42.063739575932097</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>35.472000000000001</v>
+        <v>35.491999999999997</v>
       </c>
       <c r="B73" s="0">
-        <v>1.91584</v>
+        <v>1.9164400000000004</v>
       </c>
       <c r="C73" s="0">
-        <v>41.001679083323339</v>
+        <v>40.957172506637754</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>35.972000000000001</v>
+        <v>35.991999999999997</v>
       </c>
       <c r="B74" s="0">
-        <v>1.9008399999999999</v>
+        <v>1.9014400000000002</v>
       </c>
       <c r="C74" s="0">
-        <v>39.95321028466482</v>
+        <v>39.912473355521492</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>36.472000000000001</v>
+        <v>36.491999999999997</v>
       </c>
       <c r="B75" s="0">
-        <v>1.88584</v>
+        <v>1.8864400000000003</v>
       </c>
       <c r="C75" s="0">
-        <v>38.960687028386637</v>
+        <v>38.923506974309113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>36.972000000000001</v>
+        <v>36.991999999999997</v>
       </c>
       <c r="B76" s="0">
-        <v>1.8708400000000001</v>
+        <v>1.8714400000000002</v>
       </c>
       <c r="C76" s="0">
-        <v>38.001719487363744</v>
+        <v>37.96525260835422</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>37.472000000000001</v>
+        <v>37.491999999999997</v>
       </c>
       <c r="B77" s="0">
-        <v>1.8558399999999999</v>
+        <v>1.8564400000000003</v>
       </c>
       <c r="C77" s="0">
-        <v>37.08308052860621</v>
+        <v>37.047125761938609</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>37.972000000000001</v>
+        <v>37.991999999999997</v>
       </c>
       <c r="B78" s="0">
-        <v>1.84084</v>
+        <v>1.8414400000000004</v>
       </c>
       <c r="C78" s="0">
-        <v>36.184532119615113</v>
+        <v>36.150968550166418</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>38.472000000000001</v>
+        <v>38.491999999999997</v>
       </c>
       <c r="B79" s="0">
-        <v>1.8258399999999999</v>
+        <v>1.8264400000000003</v>
       </c>
       <c r="C79" s="0">
-        <v>35.311921347866004</v>
+        <v>35.279393066826231</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>38.972000000000001</v>
+        <v>38.991999999999997</v>
       </c>
       <c r="B80" s="0">
-        <v>1.81084</v>
+        <v>1.8114400000000004</v>
       </c>
       <c r="C80" s="0">
-        <v>34.462970016369212</v>
+        <v>34.428740510826067</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>39.472000000000001</v>
+        <v>39.491999999999997</v>
       </c>
       <c r="B81" s="0">
-        <v>1.7958399999999999</v>
+        <v>1.7964400000000003</v>
       </c>
       <c r="C81" s="0">
-        <v>33.623736495388663</v>
+        <v>33.590580756142266</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>39.972000000000001</v>
+        <v>39.991999999999997</v>
       </c>
       <c r="B82" s="0">
-        <v>1.78084</v>
+        <v>1.7814400000000004</v>
       </c>
       <c r="C82" s="0">
-        <v>32.798333932207441</v>
+        <v>32.765824763471834</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>40.472000000000001</v>
+        <v>40.491999999999997</v>
       </c>
       <c r="B83" s="0">
-        <v>1.7658399999999999</v>
+        <v>1.7664400000000002</v>
       </c>
       <c r="C83" s="0">
-        <v>31.977583263464684</v>
+        <v>31.94589469354176</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>40.972000000000001</v>
+        <v>40.991999999999997</v>
       </c>
       <c r="B84" s="0">
-        <v>1.75084</v>
+        <v>1.7514400000000003</v>
       </c>
       <c r="C84" s="0">
-        <v>31.171996087355765</v>
+        <v>31.139238996297824</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>41.472000000000001</v>
+        <v>41.491999999999997</v>
       </c>
       <c r="B85" s="0">
-        <v>1.73584</v>
+        <v>1.7364400000000004</v>
       </c>
       <c r="C85" s="0">
-        <v>30.371936199944102</v>
+        <v>30.339234508806708</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>41.972000000000001</v>
+        <v>41.991999999999997</v>
       </c>
       <c r="B86" s="0">
-        <v>1.7208399999999999</v>
+        <v>1.7214400000000003</v>
       </c>
       <c r="C86" s="0">
-        <v>29.575581426917395</v>
+        <v>29.541215362177933</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>42.472000000000001</v>
+        <v>42.491999999999997</v>
       </c>
       <c r="B87" s="0">
-        <v>1.70584</v>
+        <v>1.7064400000000004</v>
       </c>
       <c r="C87" s="0">
-        <v>28.789398171437689</v>
+        <v>28.759007142590033</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>42.972000000000001</v>
+        <v>42.991999999999997</v>
       </c>
       <c r="B88" s="0">
-        <v>1.6908399999999999</v>
+        <v>1.6914400000000003</v>
       </c>
       <c r="C88" s="0">
-        <v>27.998279634287531</v>
+        <v>27.966702067985494</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>43.472000000000001</v>
+        <v>43.491999999999997</v>
       </c>
       <c r="B89" s="0">
-        <v>1.67584</v>
+        <v>1.6764400000000004</v>
       </c>
       <c r="C89" s="0">
-        <v>27.219979877829683</v>
+        <v>27.18713810253918</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>43.972000000000001</v>
+        <v>43.991999999999997</v>
       </c>
       <c r="B90" s="0">
-        <v>1.6608399999999999</v>
+        <v>1.6614400000000002</v>
       </c>
       <c r="C90" s="0">
-        <v>26.435383479059368</v>
+        <v>26.406390187352756</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>44.472000000000001</v>
+        <v>44.491999999999997</v>
       </c>
       <c r="B91" s="0">
-        <v>1.64584</v>
+        <v>1.6464400000000003</v>
       </c>
       <c r="C91" s="0">
-        <v>25.64774424082724</v>
+        <v>25.617575632923231</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>44.972000000000001</v>
+        <v>44.991999999999997</v>
       </c>
       <c r="B92" s="0">
-        <v>1.6308400000000001</v>
+        <v>1.6314400000000004</v>
       </c>
       <c r="C92" s="0">
-        <v>24.868382880185244</v>
+        <v>24.83867581616245</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>45.472000000000001</v>
+        <v>45.491999999999997</v>
       </c>
       <c r="B93" s="0">
-        <v>1.6158399999999999</v>
+        <v>1.6164400000000003</v>
       </c>
       <c r="C93" s="0">
-        <v>24.08113522577554</v>
+        <v>24.050627126883818</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>45.972000000000001</v>
+        <v>45.991999999999997</v>
       </c>
       <c r="B94" s="0">
-        <v>1.60084</v>
+        <v>1.6014400000000002</v>
       </c>
       <c r="C94" s="0">
-        <v>23.290389348025705</v>
+        <v>23.256507610037023</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>46.472000000000001</v>
+        <v>46.491999999999997</v>
       </c>
       <c r="B95" s="0">
-        <v>1.5858399999999999</v>
+        <v>1.5864400000000003</v>
       </c>
       <c r="C95" s="0">
-        <v>22.495872399888203</v>
+        <v>22.463459855652371</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>46.972000000000001</v>
+        <v>46.991999999999997</v>
       </c>
       <c r="B96" s="0">
-        <v>1.57084</v>
+        <v>1.5714400000000004</v>
       </c>
       <c r="C96" s="0">
-        <v>21.696496187168119</v>
+        <v>21.66193597846005</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>47.472000000000001</v>
+        <v>47.491999999999997</v>
       </c>
       <c r="B97" s="0">
-        <v>1.5558399999999999</v>
+        <v>1.5564400000000003</v>
       </c>
       <c r="C97" s="0">
-        <v>20.897452309657833</v>
+        <v>20.866689353427326</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>47.972000000000001</v>
+        <v>47.991999999999997</v>
       </c>
       <c r="B98" s="0">
-        <v>1.54084</v>
+        <v>1.5414400000000004</v>
       </c>
       <c r="C98" s="0">
-        <v>20.090333053858746</v>
+        <v>20.057041247522534</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.472000000000001</v>
+        <v>48.491999999999997</v>
       </c>
       <c r="B99" s="0">
-        <v>1.5258400000000001</v>
+        <v>1.5264400000000005</v>
       </c>
       <c r="C99" s="0">
-        <v>19.276833552920504</v>
+        <v>19.241312217194572</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.972000000000001</v>
+        <v>48.991999999999997</v>
       </c>
       <c r="B100" s="0">
-        <v>1.51084</v>
+        <v>1.5114400000000003</v>
       </c>
       <c r="C100" s="0">
-        <v>18.457543258673692</v>
+        <v>18.42308888971991</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>49.472000000000001</v>
+        <v>49.491999999999997</v>
       </c>
       <c r="B101" s="0">
-        <v>1.4958399999999998</v>
+        <v>1.4964400000000002</v>
       </c>
       <c r="C101" s="0">
-        <v>17.630712101249642</v>
+        <v>17.597011704872671</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>49.972000000000001</v>
+        <v>49.991999999999997</v>
       </c>
       <c r="B102" s="0">
-        <v>1.4808399999999999</v>
+        <v>1.4814400000000003</v>
       </c>
       <c r="C102" s="0">
-        <v>16.798674252405476</v>
+        <v>16.764640065816533</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>50.472000000000001</v>
+        <v>50.491999999999997</v>
       </c>
       <c r="B103" s="0">
-        <v>1.46584</v>
+        <v>1.4664400000000004</v>
       </c>
       <c r="C103" s="0">
-        <v>15.947926298558704</v>
+        <v>15.913234359223667</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>50.972000000000001</v>
+        <v>50.991999999999997</v>
       </c>
       <c r="B104" s="0">
-        <v>1.4508399999999999</v>
+        <v>1.4514400000000003</v>
       </c>
       <c r="C104" s="0">
-        <v>15.094260949415098</v>
+        <v>15.060250551587451</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>51.472000000000001</v>
+        <v>51.491999999999997</v>
       </c>
       <c r="B105" s="0">
-        <v>1.43584</v>
+        <v>1.4364400000000004</v>
       </c>
       <c r="C105" s="0">
-        <v>14.232779734099887</v>
+        <v>14.199128678807826</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>51.972000000000001</v>
+        <v>51.991999999999997</v>
       </c>
       <c r="B106" s="0">
-        <v>1.4208400000000001</v>
+        <v>1.4214400000000005</v>
       </c>
       <c r="C106" s="0">
-        <v>13.358891683634766</v>
+        <v>13.32232339852661</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>52.472000000000001</v>
+        <v>52.491999999999997</v>
       </c>
       <c r="B107" s="0">
-        <v>1.40584</v>
+        <v>1.4064400000000004</v>
       </c>
       <c r="C107" s="0">
-        <v>12.476565177466359</v>
+        <v>12.438725178564752</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>52.972000000000001</v>
+        <v>52.991999999999997</v>
       </c>
       <c r="B108" s="0">
-        <v>1.3908399999999999</v>
+        <v>1.3914400000000002</v>
       </c>
       <c r="C108" s="0">
-        <v>11.575844372579548</v>
+        <v>11.540914326315397</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>53.472000000000001</v>
+        <v>53.491999999999997</v>
       </c>
       <c r="B109" s="0">
-        <v>1.37584</v>
+        <v>1.3764400000000003</v>
       </c>
       <c r="C109" s="0">
-        <v>10.662570687108234</v>
+        <v>10.625373396656821</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>53.972000000000001</v>
+        <v>53.991999999999997</v>
       </c>
       <c r="B110" s="0">
-        <v>1.36084</v>
+        <v>1.3614400000000004</v>
       </c>
       <c r="C110" s="0">
-        <v>9.7312069309697726</v>
+        <v>9.6959347070042288</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>54.472000000000001</v>
+        <v>54.491999999999997</v>
       </c>
       <c r="B111" s="0">
-        <v>1.3458399999999999</v>
+        <v>1.3464400000000003</v>
       </c>
       <c r="C111" s="0">
-        <v>8.7970414021639307</v>
+        <v>8.7596903631128242</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>54.972000000000001</v>
+        <v>54.991999999999997</v>
       </c>
       <c r="B112" s="0">
-        <v>1.33084</v>
+        <v>1.3314400000000002</v>
       </c>
       <c r="C112" s="0">
-        <v>7.8317736255838994</v>
+        <v>7.7924475524475527</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>55.472000000000001</v>
+        <v>55.491999999999997</v>
       </c>
       <c r="B113" s="0">
-        <v>1.3158400000000001</v>
+        <v>1.3164400000000005</v>
       </c>
       <c r="C113" s="0">
-        <v>6.8521058809438253</v>
+        <v>6.8147301895964993</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>55.972000000000001</v>
+        <v>55.991999999999997</v>
       </c>
       <c r="B114" s="0">
-        <v>1.30084</v>
+        <v>1.3014400000000004</v>
       </c>
       <c r="C114" s="0">
-        <v>5.8509781610572107</v>
+        <v>5.8095000186978796</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.472000000000001</v>
+        <v>56.491999999999997</v>
       </c>
       <c r="B115" s="0">
-        <v>1.2858399999999999</v>
+        <v>1.2864400000000002</v>
       </c>
       <c r="C115" s="0">
-        <v>4.8380005589491741</v>
+        <v>4.7974870049736369</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>56.972000000000001</v>
+        <v>56.991999999999997</v>
       </c>
       <c r="B116" s="0">
-        <v>1.27084</v>
+        <v>1.2714400000000003</v>
       </c>
       <c r="C116" s="0">
-        <v>3.8023781690422003</v>
+        <v>3.7612116226019978</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>57.472000000000001</v>
+        <v>57.491999999999997</v>
       </c>
       <c r="B117" s="0">
-        <v>1.2558400000000001</v>
+        <v>1.2564400000000004</v>
       </c>
       <c r="C117" s="0">
-        <v>2.7463314568611006</v>
+        <v>2.7021255749598003</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>57.972000000000001</v>
+        <v>57.991999999999997</v>
       </c>
       <c r="B118" s="0">
-        <v>1.2408399999999999</v>
+        <v>1.2414400000000003</v>
       </c>
       <c r="C118" s="0">
-        <v>1.6661198546732141</v>
+        <v>1.6219557982124828</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>58.472000000000001</v>
+        <v>58.491999999999997</v>
       </c>
       <c r="B119" s="0">
-        <v>1.2258399999999998</v>
+        <v>1.2264400000000002</v>
       </c>
       <c r="C119" s="0">
-        <v>0.57385040431680734</v>
+        <v>0.5636363636363636</v>
       </c>
     </row>
   </sheetData>
